--- a/Figures/figure4.xlsx
+++ b/Figures/figure4.xlsx
@@ -464,7 +464,7 @@
         <v>3.658683433231951</v>
       </c>
       <c r="C2" t="n">
-        <v>4.31642195700033</v>
+        <v>4.501784097751985</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         <v>6.149196657491804</v>
       </c>
       <c r="C3" t="n">
-        <v>3.363401073580067</v>
+        <v>3.514104526605143</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>8.838014668688004</v>
       </c>
       <c r="C4" t="n">
-        <v>2.847464778293618</v>
+        <v>2.870114476657983</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>11.04875865041318</v>
       </c>
       <c r="C5" t="n">
-        <v>2.636621860739466</v>
+        <v>2.703754574549279</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +516,7 @@
         <v>12.86958400644032</v>
       </c>
       <c r="C6" t="n">
-        <v>4.723508356207425</v>
+        <v>4.580184716789335</v>
       </c>
     </row>
     <row r="7">
@@ -529,7 +529,7 @@
         <v>13.48037164006155</v>
       </c>
       <c r="C7" t="n">
-        <v>3.938974508476793</v>
+        <v>4.138508867909144</v>
       </c>
     </row>
     <row r="8">
@@ -542,7 +542,7 @@
         <v>14.14991879898117</v>
       </c>
       <c r="C8" t="n">
-        <v>4.044848151072924</v>
+        <v>4.2022455497158</v>
       </c>
     </row>
     <row r="9">
@@ -555,7 +555,7 @@
         <v>14.51316828722442</v>
       </c>
       <c r="C9" t="n">
-        <v>2.675331523097996</v>
+        <v>2.629765649075298</v>
       </c>
     </row>
     <row r="10">
@@ -568,7 +568,7 @@
         <v>14.51984968915406</v>
       </c>
       <c r="C10" t="n">
-        <v>3.109566229412219</v>
+        <v>3.173174906282313</v>
       </c>
     </row>
     <row r="11">
@@ -581,7 +581,7 @@
         <v>20.02266000649776</v>
       </c>
       <c r="C11" t="n">
-        <v>1.951941640803495</v>
+        <v>1.95638918180693</v>
       </c>
     </row>
     <row r="12">
@@ -594,7 +594,7 @@
         <v>20.18715191771729</v>
       </c>
       <c r="C12" t="n">
-        <v>3.917419370281372</v>
+        <v>3.93157080984439</v>
       </c>
     </row>
     <row r="13">
@@ -607,7 +607,7 @@
         <v>21.4470789852848</v>
       </c>
       <c r="C13" t="n">
-        <v>2.978959403432484</v>
+        <v>3.064483678179676</v>
       </c>
     </row>
     <row r="14">
@@ -620,7 +620,7 @@
         <v>26.07907670771616</v>
       </c>
       <c r="C14" t="n">
-        <v>5.192083083180412</v>
+        <v>5.427009348350259</v>
       </c>
     </row>
     <row r="15">
@@ -633,7 +633,7 @@
         <v>26.66603287823916</v>
       </c>
       <c r="C15" t="n">
-        <v>2.894765198629504</v>
+        <v>2.929771270878648</v>
       </c>
     </row>
     <row r="16">
@@ -646,7 +646,7 @@
         <v>27.29254363888601</v>
       </c>
       <c r="C16" t="n">
-        <v>1.792139777268155</v>
+        <v>1.867663543461719</v>
       </c>
     </row>
     <row r="17">
@@ -659,7 +659,7 @@
         <v>28.20855106545503</v>
       </c>
       <c r="C17" t="n">
-        <v>1.658970791531063</v>
+        <v>1.636079108443735</v>
       </c>
     </row>
     <row r="18">
@@ -672,7 +672,7 @@
         <v>28.50476361736477</v>
       </c>
       <c r="C18" t="n">
-        <v>3.778570607603177</v>
+        <v>3.799029080394782</v>
       </c>
     </row>
     <row r="19">
@@ -685,7 +685,7 @@
         <v>29.08896566699443</v>
       </c>
       <c r="C19" t="n">
-        <v>5.579309913063235</v>
+        <v>5.57118081692063</v>
       </c>
     </row>
     <row r="20">
@@ -698,7 +698,7 @@
         <v>29.52929932682129</v>
       </c>
       <c r="C20" t="n">
-        <v>3.119937614058931</v>
+        <v>3.242195717587823</v>
       </c>
     </row>
     <row r="21">
@@ -711,7 +711,7 @@
         <v>29.80181013841575</v>
       </c>
       <c r="C21" t="n">
-        <v>2.497392505291439</v>
+        <v>2.503822018946285</v>
       </c>
     </row>
     <row r="22">
@@ -724,7 +724,7 @@
         <v>30.91070748344712</v>
       </c>
       <c r="C22" t="n">
-        <v>2.44798735867241</v>
+        <v>2.499680267278188</v>
       </c>
     </row>
     <row r="23">
@@ -737,7 +737,7 @@
         <v>33.08606534687009</v>
       </c>
       <c r="C23" t="n">
-        <v>2.155809951912885</v>
+        <v>2.155383037131647</v>
       </c>
     </row>
     <row r="24">
@@ -750,7 +750,7 @@
         <v>33.8211264676923</v>
       </c>
       <c r="C24" t="n">
-        <v>3.560930623832228</v>
+        <v>3.678088813471982</v>
       </c>
     </row>
     <row r="25">
@@ -763,7 +763,7 @@
         <v>33.86672561612055</v>
       </c>
       <c r="C25" t="n">
-        <v>2.754857506385687</v>
+        <v>2.787015839338903</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +776,7 @@
         <v>36.66096345042055</v>
       </c>
       <c r="C26" t="n">
-        <v>2.583094972126674</v>
+        <v>2.627016525798966</v>
       </c>
     </row>
     <row r="27">
@@ -789,7 +789,7 @@
         <v>37.91532721705383</v>
       </c>
       <c r="C27" t="n">
-        <v>4.141121568285944</v>
+        <v>4.205995459206566</v>
       </c>
     </row>
     <row r="28">
@@ -802,7 +802,7 @@
         <v>38.50733191216513</v>
       </c>
       <c r="C28" t="n">
-        <v>2.761288436754391</v>
+        <v>2.839480305393476</v>
       </c>
     </row>
     <row r="29">
@@ -815,7 +815,7 @@
         <v>39.62684315955195</v>
       </c>
       <c r="C29" t="n">
-        <v>1.978490550642896</v>
+        <v>2.061978944971972</v>
       </c>
     </row>
     <row r="30">
@@ -828,7 +828,7 @@
         <v>40.82653392688349</v>
       </c>
       <c r="C30" t="n">
-        <v>2.955006823341848</v>
+        <v>2.6268021106961</v>
       </c>
     </row>
     <row r="31">
@@ -841,7 +841,7 @@
         <v>41.00099633912095</v>
       </c>
       <c r="C31" t="n">
-        <v>3.720556300796928</v>
+        <v>3.805893855053545</v>
       </c>
     </row>
     <row r="32">
@@ -854,7 +854,7 @@
         <v>41.74143521820427</v>
       </c>
       <c r="C32" t="n">
-        <v>1.260834451845664</v>
+        <v>1.259958634903925</v>
       </c>
     </row>
     <row r="33">
@@ -867,7 +867,7 @@
         <v>41.78482081334645</v>
       </c>
       <c r="C33" t="n">
-        <v>2.066983084298273</v>
+        <v>2.074116786463354</v>
       </c>
     </row>
     <row r="34">
@@ -880,7 +880,7 @@
         <v>44.65136115317269</v>
       </c>
       <c r="C34" t="n">
-        <v>2.119881500413794</v>
+        <v>2.128415565181606</v>
       </c>
     </row>
     <row r="35">
@@ -893,7 +893,7 @@
         <v>45.98796083386492</v>
       </c>
       <c r="C35" t="n">
-        <v>1.824995741478986</v>
+        <v>1.778399481127189</v>
       </c>
     </row>
     <row r="36">
@@ -906,7 +906,7 @@
         <v>47.22294185739049</v>
       </c>
       <c r="C36" t="n">
-        <v>3.226823435452429</v>
+        <v>3.253045402869718</v>
       </c>
     </row>
     <row r="37">
@@ -919,7 +919,7 @@
         <v>47.47063295942849</v>
       </c>
       <c r="C37" t="n">
-        <v>4.223609693578675</v>
+        <v>4.215227682144947</v>
       </c>
     </row>
     <row r="38">
@@ -932,7 +932,7 @@
         <v>48.65775224672655</v>
       </c>
       <c r="C38" t="n">
-        <v>4.727322894024134</v>
+        <v>4.755515314875079</v>
       </c>
     </row>
     <row r="39">
@@ -945,7 +945,7 @@
         <v>50.15263589053244</v>
       </c>
       <c r="C39" t="n">
-        <v>3.015560474654756</v>
+        <v>3.05462960265947</v>
       </c>
     </row>
     <row r="40">
@@ -958,7 +958,7 @@
         <v>50.77144050608332</v>
       </c>
       <c r="C40" t="n">
-        <v>3.163824129932533</v>
+        <v>3.179872636756213</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         <v>52.69284744205405</v>
       </c>
       <c r="C41" t="n">
-        <v>2.672585532354527</v>
+        <v>2.675239333960548</v>
       </c>
     </row>
     <row r="42">
@@ -984,7 +984,7 @@
         <v>53.01173802062971</v>
       </c>
       <c r="C42" t="n">
-        <v>2.563359288364252</v>
+        <v>2.54100749201279</v>
       </c>
     </row>
     <row r="43">
@@ -997,7 +997,7 @@
         <v>54.652508821656</v>
       </c>
       <c r="C43" t="n">
-        <v>2.373240414786856</v>
+        <v>2.383517006821152</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1010,7 @@
         <v>55.04561490480631</v>
       </c>
       <c r="C44" t="n">
-        <v>2.683094359287637</v>
+        <v>2.703109720036484</v>
       </c>
     </row>
     <row r="45">
@@ -1023,7 +1023,7 @@
         <v>55.34889320301367</v>
       </c>
       <c r="C45" t="n">
-        <v>3.024178148803657</v>
+        <v>3.027902263279424</v>
       </c>
     </row>
     <row r="46">
@@ -1036,7 +1036,7 @@
         <v>59.98409112201868</v>
       </c>
       <c r="C46" t="n">
-        <v>3.210123022110137</v>
+        <v>3.189519610916263</v>
       </c>
     </row>
     <row r="47">
@@ -1049,7 +1049,7 @@
         <v>62.94019617704569</v>
       </c>
       <c r="C47" t="n">
-        <v>3.340338153206138</v>
+        <v>3.34194379836206</v>
       </c>
     </row>
     <row r="48">
@@ -1062,7 +1062,7 @@
         <v>67.13905770213303</v>
       </c>
       <c r="C48" t="n">
-        <v>1.410887072286087</v>
+        <v>1.390262453711964</v>
       </c>
     </row>
     <row r="49">
@@ -1075,7 +1075,7 @@
         <v>78.21148525458689</v>
       </c>
       <c r="C49" t="n">
-        <v>1.841175626733668</v>
+        <v>1.871535066104297</v>
       </c>
     </row>
     <row r="50">
@@ -1088,7 +1088,7 @@
         <v>112.7006754642628</v>
       </c>
       <c r="C50" t="n">
-        <v>2.32503825658755</v>
+        <v>2.373150856980761</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1606645598919692</v>
+        <v>-0.1719900305930844</v>
       </c>
     </row>
     <row r="3">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.600849461732571</v>
+        <v>1.648900803334623</v>
       </c>
     </row>
     <row r="4">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3239510050743691</v>
+        <v>-0.3414369871125013</v>
       </c>
     </row>
     <row r="5">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02316310754216393</v>
+        <v>0.01635017958316155</v>
       </c>
     </row>
     <row r="6">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06844108260000338</v>
+        <v>0.06906016084883629</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01486066785116375</v>
+        <v>-0.0159374611066419</v>
       </c>
     </row>
     <row r="3">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.555783576051315</v>
+        <v>3.627993899681143</v>
       </c>
     </row>
     <row r="4">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3107478233578621</v>
+        <v>-0.325152018203971</v>
       </c>
     </row>
     <row r="5">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02976543560059614</v>
+        <v>0.02262902715835449</v>
       </c>
     </row>
     <row r="6">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006630250682271379</v>
+        <v>0.006761134614552927</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3149212771183876</v>
+        <v>-0.3228409932872477</v>
       </c>
     </row>
     <row r="3">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07539185372416717</v>
+        <v>-0.07475978187368017</v>
       </c>
     </row>
     <row r="4">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02739609839849664</v>
+        <v>-0.03457697949923762</v>
       </c>
     </row>
     <row r="5">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08760351597874379</v>
+        <v>-0.0715390263209741</v>
       </c>
     </row>
     <row r="6">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04469432164457558</v>
+        <v>-0.03668548975669529</v>
       </c>
     </row>
     <row r="7">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3741814958893758</v>
+        <v>0.3678869392356734</v>
       </c>
     </row>
     <row r="8">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8349589261826567</v>
+        <v>-0.86192557921543</v>
       </c>
     </row>
     <row r="9">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2182664478632239</v>
+        <v>0.2442009129519413</v>
       </c>
     </row>
     <row r="10">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2417890993268884</v>
+        <v>0.2450928735261928</v>
       </c>
     </row>
     <row r="11">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1634801663235647</v>
+        <v>-0.1477970797851499</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2378589417368963</v>
+        <v>-0.2588574713705153</v>
       </c>
     </row>
     <row r="13">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.19220682188895</v>
+        <v>-0.1970152657358583</v>
       </c>
     </row>
     <row r="14">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1658118425876041</v>
+        <v>-0.1664466923775907</v>
       </c>
     </row>
     <row r="15">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4968433562236237</v>
+        <v>-0.4677519495859125</v>
       </c>
     </row>
     <row r="16">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2615125780114576</v>
+        <v>0.247285482956463</v>
       </c>
     </row>
     <row r="17">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4278173709443343</v>
+        <v>-0.4360402873509869</v>
       </c>
     </row>
     <row r="18">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.5775999084392247</v>
+        <v>-0.6157043322507544</v>
       </c>
     </row>
     <row r="19">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.539887535216441</v>
+        <v>0.5261889031730101</v>
       </c>
     </row>
     <row r="20">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1162735601265415</v>
+        <v>-0.1164937687194787</v>
       </c>
     </row>
     <row r="21">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04136455590723905</v>
+        <v>-0.01516733326554935</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.2096790624661541</v>
+        <v>-0.1967767339434115</v>
       </c>
     </row>
     <row r="23">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.5687732668685654</v>
+        <v>-0.5646591390700756</v>
       </c>
     </row>
     <row r="24">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03377512426655909</v>
+        <v>0.0653666109290675</v>
       </c>
     </row>
     <row r="25">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.4530874650656538</v>
+        <v>-0.4618827061625425</v>
       </c>
     </row>
     <row r="26">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.09567660209585349</v>
+        <v>-0.2256509452966482</v>
       </c>
     </row>
     <row r="27">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1346956382947773</v>
+        <v>0.1451327554847073</v>
       </c>
     </row>
     <row r="28">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09084435985603084</v>
+        <v>0.1109751489550032</v>
       </c>
     </row>
     <row r="29">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.3354410686845801</v>
+        <v>-0.3271995764584479</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1501682299447058</v>
+        <v>0.143327404771345</v>
       </c>
     </row>
     <row r="31">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.9474037969014359</v>
+        <v>-0.9603392331715638</v>
       </c>
     </row>
     <row r="32">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.5103529716201693</v>
+        <v>-0.520317604129693</v>
       </c>
     </row>
     <row r="33">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.07253819381130003</v>
+        <v>-0.08354806674925815</v>
       </c>
     </row>
     <row r="34">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02689448330394092</v>
+        <v>0.01513448910928988</v>
       </c>
     </row>
     <row r="35">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.2639303723448496</v>
+        <v>-0.2735997521386541</v>
       </c>
     </row>
     <row r="36">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.4110110613367498</v>
+        <v>-0.4234496729449471</v>
       </c>
     </row>
     <row r="37">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.5957672498162674</v>
+        <v>-0.5667299164907431</v>
       </c>
     </row>
     <row r="38">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.467957419392363</v>
+        <v>0.4999700934882194</v>
       </c>
     </row>
     <row r="39">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1961311940070234</v>
+        <v>-0.2073792771695545</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.2301892804488622</v>
+        <v>-0.2255693227215955</v>
       </c>
     </row>
     <row r="41">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.2839113613390473</v>
+        <v>-0.2752552935483111</v>
       </c>
     </row>
     <row r="42">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.6729801570507472</v>
+        <v>-0.699115532348764</v>
       </c>
     </row>
     <row r="43">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.007679365227151453</v>
+        <v>-0.01182651953074746</v>
       </c>
     </row>
     <row r="44">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.01286830098232857</v>
+        <v>-0.03154781088737113</v>
       </c>
     </row>
     <row r="45">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.1327485151158547</v>
+        <v>-0.1370662078413954</v>
       </c>
     </row>
     <row r="46">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1917428503607642</v>
+        <v>0.2289174219697052</v>
       </c>
     </row>
     <row r="47">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2832492463377487</v>
+        <v>0.3130556602167149</v>
       </c>
     </row>
     <row r="48">
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1951042554975727</v>
+        <v>-0.2245233887507737</v>
       </c>
     </row>
     <row r="49">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1862555510694385</v>
+        <v>0.1776209190302376</v>
       </c>
     </row>
     <row r="50">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3733742572618201</v>
+        <v>0.3303212043348014</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>3.658683433231951</v>
       </c>
       <c r="C2" t="n">
-        <v>1.423533337985444</v>
+        <v>1.423533337985487</v>
       </c>
     </row>
     <row r="3">
@@ -1818,7 +1818,7 @@
         <v>6.149196657491804</v>
       </c>
       <c r="C3" t="n">
-        <v>1.560557581946291</v>
+        <v>1.56055758194631</v>
       </c>
     </row>
     <row r="4">
@@ -1831,7 +1831,7 @@
         <v>8.838014668688004</v>
       </c>
       <c r="C4" t="n">
-        <v>2.030537255170603</v>
+        <v>2.03053725517065</v>
       </c>
     </row>
     <row r="5">
@@ -1844,7 +1844,7 @@
         <v>11.04875865041318</v>
       </c>
       <c r="C5" t="n">
-        <v>1.494707699150045</v>
+        <v>1.494707699150071</v>
       </c>
     </row>
     <row r="6">
@@ -1857,7 +1857,7 @@
         <v>12.86958400644032</v>
       </c>
       <c r="C6" t="n">
-        <v>2.430047151314556</v>
+        <v>2.430047151314608</v>
       </c>
     </row>
     <row r="7">
@@ -1870,7 +1870,7 @@
         <v>13.48037164006155</v>
       </c>
       <c r="C7" t="n">
-        <v>1.882431284080891</v>
+        <v>1.88243128408095</v>
       </c>
     </row>
     <row r="8">
@@ -1883,7 +1883,7 @@
         <v>14.14991879898117</v>
       </c>
       <c r="C8" t="n">
-        <v>2.865476437018604</v>
+        <v>2.865476437018665</v>
       </c>
     </row>
     <row r="9">
@@ -1896,7 +1896,7 @@
         <v>14.51316828722442</v>
       </c>
       <c r="C9" t="n">
-        <v>1.84076967757003</v>
+        <v>1.840769677570086</v>
       </c>
     </row>
     <row r="10">
@@ -1909,7 +1909,7 @@
         <v>14.51984968915406</v>
       </c>
       <c r="C10" t="n">
-        <v>2.32463748919039</v>
+        <v>2.324637489190438</v>
       </c>
     </row>
     <row r="11">
@@ -1922,7 +1922,7 @@
         <v>20.02266000649776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9831997986322654</v>
+        <v>0.9831997986322905</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +1935,7 @@
         <v>20.18715191771729</v>
       </c>
       <c r="C12" t="n">
-        <v>2.439586482160264</v>
+        <v>2.439586482160321</v>
       </c>
     </row>
     <row r="13">
@@ -1948,7 +1948,7 @@
         <v>21.4470789852848</v>
       </c>
       <c r="C13" t="n">
-        <v>1.689128825771832</v>
+        <v>1.689128825771906</v>
       </c>
     </row>
     <row r="14">
@@ -1961,7 +1961,7 @@
         <v>26.07907670771616</v>
       </c>
       <c r="C14" t="n">
-        <v>1.706521479402592</v>
+        <v>1.706521479402625</v>
       </c>
     </row>
     <row r="15">
@@ -1974,7 +1974,7 @@
         <v>26.66603287823916</v>
       </c>
       <c r="C15" t="n">
-        <v>2.077485614265097</v>
+        <v>2.077485614265207</v>
       </c>
     </row>
     <row r="16">
@@ -1987,7 +1987,7 @@
         <v>27.29254363888601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8987661322388156</v>
+        <v>0.8987661322388819</v>
       </c>
     </row>
     <row r="17">
@@ -2000,7 +2000,7 @@
         <v>28.20855106545503</v>
       </c>
       <c r="C17" t="n">
-        <v>1.245885024040716</v>
+        <v>1.245885024040758</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>28.50476361736477</v>
       </c>
       <c r="C18" t="n">
-        <v>3.166456872589514</v>
+        <v>3.166456872589618</v>
       </c>
     </row>
     <row r="19">
@@ -2026,7 +2026,7 @@
         <v>29.08896566699443</v>
       </c>
       <c r="C19" t="n">
-        <v>4.589553939642933</v>
+        <v>4.589553939643</v>
       </c>
     </row>
     <row r="20">
@@ -2039,7 +2039,7 @@
         <v>29.52929932682129</v>
       </c>
       <c r="C20" t="n">
-        <v>1.833355684533205</v>
+        <v>1.833355684533269</v>
       </c>
     </row>
     <row r="21">
@@ -2052,7 +2052,7 @@
         <v>29.80181013841575</v>
       </c>
       <c r="C21" t="n">
-        <v>1.863070463181359</v>
+        <v>1.863070463181411</v>
       </c>
     </row>
     <row r="22">
@@ -2065,7 +2065,7 @@
         <v>30.91070748344712</v>
       </c>
       <c r="C22" t="n">
-        <v>2.072852006901643</v>
+        <v>2.072852006901706</v>
       </c>
     </row>
     <row r="23">
@@ -2078,7 +2078,7 @@
         <v>33.08606534687009</v>
       </c>
       <c r="C23" t="n">
-        <v>1.904709499960408</v>
+        <v>1.904709499960458</v>
       </c>
     </row>
     <row r="24">
@@ -2091,7 +2091,7 @@
         <v>33.8211264676923</v>
       </c>
       <c r="C24" t="n">
-        <v>2.260016852305526</v>
+        <v>2.260016852305593</v>
       </c>
     </row>
     <row r="25">
@@ -2104,7 +2104,7 @@
         <v>33.86672561612055</v>
       </c>
       <c r="C25" t="n">
-        <v>2.265772470999616</v>
+        <v>2.265772470999703</v>
       </c>
     </row>
     <row r="26">
@@ -2117,7 +2117,7 @@
         <v>36.66096345042055</v>
       </c>
       <c r="C26" t="n">
-        <v>2.184596397176215</v>
+        <v>2.184596397176297</v>
       </c>
     </row>
     <row r="27">
@@ -2130,7 +2130,7 @@
         <v>37.91532721705383</v>
       </c>
       <c r="C27" t="n">
-        <v>2.279975834747263</v>
+        <v>2.27997583474734</v>
       </c>
     </row>
     <row r="28">
@@ -2143,7 +2143,7 @@
         <v>38.50733191216513</v>
       </c>
       <c r="C28" t="n">
-        <v>2.137565778655937</v>
+        <v>2.137565778656006</v>
       </c>
     </row>
     <row r="29">
@@ -2156,7 +2156,7 @@
         <v>39.62684315955195</v>
       </c>
       <c r="C29" t="n">
-        <v>1.760053430323267</v>
+        <v>1.760053430323323</v>
       </c>
     </row>
     <row r="30">
@@ -2169,7 +2169,7 @@
         <v>40.82653392688349</v>
       </c>
       <c r="C30" t="n">
-        <v>2.263637377771769</v>
+        <v>2.263637377771818</v>
       </c>
     </row>
     <row r="31">
@@ -2182,7 +2182,7 @@
         <v>41.00099633912095</v>
       </c>
       <c r="C31" t="n">
-        <v>2.712393370689553</v>
+        <v>2.712393370689097</v>
       </c>
     </row>
     <row r="32">
@@ -2195,7 +2195,7 @@
         <v>41.74143521820427</v>
       </c>
       <c r="C32" t="n">
-        <v>3.205191996061346</v>
+        <v>3.205191996061456</v>
       </c>
     </row>
     <row r="33">
@@ -2208,7 +2208,7 @@
         <v>41.78482081334645</v>
       </c>
       <c r="C33" t="n">
-        <v>2.106199928949652</v>
+        <v>2.106199928949715</v>
       </c>
     </row>
     <row r="34">
@@ -2221,7 +2221,7 @@
         <v>44.65136115317269</v>
       </c>
       <c r="C34" t="n">
-        <v>2.09946656491395</v>
+        <v>2.099466564914016</v>
       </c>
     </row>
     <row r="35">
@@ -2234,7 +2234,7 @@
         <v>45.98796083386492</v>
       </c>
       <c r="C35" t="n">
-        <v>1.99584004807988</v>
+        <v>1.995840048079945</v>
       </c>
     </row>
     <row r="36">
@@ -2247,7 +2247,7 @@
         <v>47.22294185739049</v>
       </c>
       <c r="C36" t="n">
-        <v>2.428358548156365</v>
+        <v>2.428358548156409</v>
       </c>
     </row>
     <row r="37">
@@ -2260,7 +2260,7 @@
         <v>47.47063295942849</v>
       </c>
       <c r="C37" t="n">
-        <v>3.257228760663261</v>
+        <v>3.25722876066337</v>
       </c>
     </row>
     <row r="38">
@@ -2273,7 +2273,7 @@
         <v>48.65775224672655</v>
       </c>
       <c r="C38" t="n">
-        <v>3.818546951503979</v>
+        <v>3.818546951504054</v>
       </c>
     </row>
     <row r="39">
@@ -2286,7 +2286,7 @@
         <v>50.15263589053244</v>
       </c>
       <c r="C39" t="n">
-        <v>2.749826232358193</v>
+        <v>2.749826232358276</v>
       </c>
     </row>
     <row r="40">
@@ -2299,7 +2299,7 @@
         <v>50.77144050608332</v>
       </c>
       <c r="C40" t="n">
-        <v>3.568071924354169</v>
+        <v>3.568071924354279</v>
       </c>
     </row>
     <row r="41">
@@ -2312,7 +2312,7 @@
         <v>52.69284744205405</v>
       </c>
       <c r="C41" t="n">
-        <v>2.575757196153074</v>
+        <v>2.575757196153167</v>
       </c>
     </row>
     <row r="42">
@@ -2325,7 +2325,7 @@
         <v>53.01173802062971</v>
       </c>
       <c r="C42" t="n">
-        <v>2.531211308191991</v>
+        <v>2.531211308192065</v>
       </c>
     </row>
     <row r="43">
@@ -2338,7 +2338,7 @@
         <v>54.652508821656</v>
       </c>
       <c r="C43" t="n">
-        <v>2.464906438428327</v>
+        <v>2.464906438428404</v>
       </c>
     </row>
     <row r="44">
@@ -2351,7 +2351,7 @@
         <v>55.04561490480631</v>
       </c>
       <c r="C44" t="n">
-        <v>3.249023574315471</v>
+        <v>3.249023574315568</v>
       </c>
     </row>
     <row r="45">
@@ -2364,7 +2364,7 @@
         <v>55.34889320301367</v>
       </c>
       <c r="C45" t="n">
-        <v>3.016782050010114</v>
+        <v>3.016782050010205</v>
       </c>
     </row>
     <row r="46">
@@ -2377,7 +2377,7 @@
         <v>59.98409112201868</v>
       </c>
       <c r="C46" t="n">
-        <v>2.350415268623769</v>
+        <v>2.350415268623825</v>
       </c>
     </row>
     <row r="47">
@@ -2390,7 +2390,7 @@
         <v>62.94019617704569</v>
       </c>
       <c r="C47" t="n">
-        <v>3.82813675569554</v>
+        <v>3.828136755695637</v>
       </c>
     </row>
     <row r="48">
@@ -2403,7 +2403,7 @@
         <v>67.13905770213303</v>
       </c>
       <c r="C48" t="n">
-        <v>2.497472854077807</v>
+        <v>2.497472854077905</v>
       </c>
     </row>
     <row r="49">
@@ -2416,7 +2416,7 @@
         <v>78.21148525458689</v>
       </c>
       <c r="C49" t="n">
-        <v>2.846950165520028</v>
+        <v>2.84695016552012</v>
       </c>
     </row>
     <row r="50">
@@ -2429,7 +2429,7 @@
         <v>112.7006754642628</v>
       </c>
       <c r="C50" t="n">
-        <v>4.4151033140478</v>
+        <v>4.415103314047939</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02290612544723601</v>
+        <v>0.02290612544723676</v>
       </c>
     </row>
     <row r="3">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.539726328038165</v>
+        <v>1.539726328038196</v>
       </c>
     </row>
     <row r="4">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5883343769652168</v>
+        <v>0.5883343769652264</v>
       </c>
     </row>
     <row r="5">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.759274374466659e-06</v>
+        <v>8.759274374462963e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004592210097939924</v>
+        <v>0.004592210097939959</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.251698782326725</v>
+        <v>3.29174600349009</v>
       </c>
     </row>
     <row r="3">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.184315190616991</v>
+        <v>2.184315190617037</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1208514852435725</v>
+        <v>0.1208514852435831</v>
       </c>
     </row>
     <row r="3">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2302353559307512</v>
+        <v>0.2302353559307607</v>
       </c>
     </row>
     <row r="4">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4907230071677175</v>
+        <v>0.4907230071677273</v>
       </c>
     </row>
     <row r="5">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2570894572013431</v>
+        <v>-0.2570894572013201</v>
       </c>
     </row>
     <row r="6">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.558567605550646</v>
+        <v>0.5585676055506449</v>
       </c>
     </row>
     <row r="8">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1339769967255017</v>
+        <v>0.1339769967255201</v>
       </c>
     </row>
     <row r="9">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2714322664667231</v>
+        <v>0.2714322664667235</v>
       </c>
     </row>
     <row r="10">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04286247859723763</v>
+        <v>0.04286247859725103</v>
       </c>
     </row>
     <row r="11">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02163467052240012</v>
+        <v>-0.02163467052238854</v>
       </c>
     </row>
     <row r="12">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.147395600585455</v>
+        <v>0.1473956005854632</v>
       </c>
     </row>
     <row r="13">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3970521470108599</v>
+        <v>0.3970521470108691</v>
       </c>
     </row>
     <row r="14">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03661338207282094</v>
+        <v>0.03661338207283828</v>
       </c>
     </row>
     <row r="15">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2159581987904026</v>
+        <v>-0.2159581987903917</v>
       </c>
     </row>
     <row r="16">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3995743949272563</v>
+        <v>0.399574394927269</v>
       </c>
     </row>
     <row r="17">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03961906976385762</v>
+        <v>-0.03961906976384722</v>
       </c>
     </row>
     <row r="18">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09023732707221624</v>
+        <v>-0.09023732707220457</v>
       </c>
     </row>
     <row r="19">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7424804729265205</v>
+        <v>0.7424804729265146</v>
       </c>
     </row>
     <row r="20">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05014404233586189</v>
+        <v>-0.05014404233582979</v>
       </c>
     </row>
     <row r="21">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1751543704583186</v>
+        <v>-0.1751543704583044</v>
       </c>
     </row>
     <row r="22">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3793716967547394</v>
+        <v>-0.3793716967547426</v>
       </c>
     </row>
     <row r="23">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.264945938416888</v>
+        <v>0.2649459384168995</v>
       </c>
     </row>
     <row r="24">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.3362591837927503</v>
+        <v>-0.336259183792759</v>
       </c>
     </row>
     <row r="25">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.03641702328742842</v>
+        <v>-0.03641702328741944</v>
       </c>
     </row>
     <row r="26">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03567061316593189</v>
+        <v>0.03567061316593318</v>
       </c>
     </row>
     <row r="27">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2165290422311569</v>
+        <v>0.2165290422309682</v>
       </c>
     </row>
     <row r="28">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03406990451086556</v>
+        <v>0.03406990451087435</v>
       </c>
     </row>
     <row r="29">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.703728868954576</v>
+        <v>0.7037288689545868</v>
       </c>
     </row>
     <row r="30">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3713108914646168</v>
+        <v>0.3713108914646289</v>
       </c>
     </row>
     <row r="31">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3834696282278531</v>
+        <v>0.3834696282278669</v>
       </c>
     </row>
     <row r="32">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.7982452910567346</v>
+        <v>-0.7982452910567298</v>
       </c>
     </row>
     <row r="33">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3228883514165187</v>
+        <v>0.322888351416528</v>
       </c>
     </row>
     <row r="34">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5610758325380257</v>
+        <v>0.5610758325380305</v>
       </c>
     </row>
     <row r="35">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1590764521867585</v>
+        <v>-0.1590764521867517</v>
       </c>
     </row>
     <row r="36">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1369728620266329</v>
+        <v>-0.1369728620266273</v>
       </c>
     </row>
     <row r="37">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.8880347859860069</v>
+        <v>-0.8880347859859539</v>
       </c>
     </row>
     <row r="38">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.2468452894158349</v>
+        <v>-0.2468452894158363</v>
       </c>
     </row>
     <row r="39">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1648411821300762</v>
+        <v>0.1648411821300914</v>
       </c>
     </row>
     <row r="40">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.000128730716546025</v>
+        <v>0.0001287307165628982</v>
       </c>
     </row>
     <row r="41">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.05237692539819245</v>
+        <v>-0.05237692539818239</v>
       </c>
     </row>
     <row r="42">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.5614562254611087</v>
+        <v>-0.5614562254610959</v>
       </c>
     </row>
     <row r="43">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1059131689994541</v>
+        <v>0.1059131689994515</v>
       </c>
     </row>
     <row r="44">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.07328965707946924</v>
+        <v>0.07328965707947234</v>
       </c>
     </row>
     <row r="45">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.07300194976035523</v>
+        <v>-0.07300194976035285</v>
       </c>
     </row>
     <row r="46">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1487381879724744</v>
+        <v>-0.1487381879724637</v>
       </c>
     </row>
     <row r="47">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.4281603183263143</v>
+        <v>-0.428160318326305</v>
       </c>
     </row>
     <row r="48">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1711185783341208</v>
+        <v>-0.1711185783341108</v>
       </c>
     </row>
     <row r="49">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1105261849003145</v>
+        <v>0.1105261849003173</v>
       </c>
     </row>
     <row r="50">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1066082954794719</v>
+        <v>0.1066082954794727</v>
       </c>
     </row>
   </sheetData>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8678978941385984</v>
+        <v>0.8781744861728952</v>
       </c>
       <c r="C2" t="n">
         <v>1.505342520648257</v>
       </c>
       <c r="D2" t="n">
-        <v>2.464906438428327</v>
+        <v>2.464906438428404</v>
       </c>
     </row>
     <row r="3">
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8183991828878189</v>
+        <v>0.8574683108925322</v>
       </c>
       <c r="C3" t="n">
         <v>2.197161291766937</v>
       </c>
       <c r="D3" t="n">
-        <v>2.749826232358193</v>
+        <v>2.749826232358276</v>
       </c>
     </row>
     <row r="4">
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7427909062599858</v>
+        <v>0.7588394130836659</v>
       </c>
       <c r="C4" t="n">
         <v>2.421033223672547</v>
       </c>
       <c r="D4" t="n">
-        <v>3.568071924354169</v>
+        <v>3.568071924354279</v>
       </c>
     </row>
     <row r="5">
@@ -3166,13 +3166,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9417118243480836</v>
+        <v>1.027236099095275</v>
       </c>
       <c r="C5" t="n">
         <v>2.037247579084401</v>
       </c>
       <c r="D5" t="n">
-        <v>1.689128825771832</v>
+        <v>1.689128825771906</v>
       </c>
     </row>
     <row r="6">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6741088671006071</v>
+        <v>0.7377175439707003</v>
       </c>
       <c r="C6" t="n">
         <v>2.435457362311612</v>
       </c>
       <c r="D6" t="n">
-        <v>2.32463748919039</v>
+        <v>2.324637489190438</v>
       </c>
     </row>
     <row r="7">
@@ -3198,13 +3198,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.482154831389242</v>
+        <v>1.510347252240187</v>
       </c>
       <c r="C7" t="n">
         <v>3.245168062634892</v>
       </c>
       <c r="D7" t="n">
-        <v>3.818546951503979</v>
+        <v>3.818546951504054</v>
       </c>
     </row>
     <row r="8">
@@ -3214,13 +3214,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5873290506068892</v>
+        <v>0.5667044320327661</v>
       </c>
       <c r="C8" t="n">
         <v>0.8235580216791979</v>
       </c>
       <c r="D8" t="n">
-        <v>2.497472854077807</v>
+        <v>2.497472854077905</v>
       </c>
     </row>
     <row r="9">
@@ -3230,13 +3230,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7712190557854322</v>
+        <v>0.928616454428309</v>
       </c>
       <c r="C9" t="n">
         <v>3.273629095287491</v>
       </c>
       <c r="D9" t="n">
-        <v>2.865476437018604</v>
+        <v>2.865476437018665</v>
       </c>
     </row>
     <row r="10">
@@ -3246,13 +3246,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8233232857890876</v>
+        <v>0.8881971767097099</v>
       </c>
       <c r="C10" t="n">
         <v>3.317798282496856</v>
       </c>
       <c r="D10" t="n">
-        <v>2.279975834747263</v>
+        <v>2.27997583474734</v>
       </c>
     </row>
     <row r="11">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.822334237336833</v>
+        <v>0.9005261059759182</v>
       </c>
       <c r="C11" t="n">
         <v>1.938954199417558</v>
       </c>
       <c r="D11" t="n">
-        <v>2.137565778655937</v>
+        <v>2.137565778656006</v>
       </c>
     </row>
     <row r="12">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.876419195151572</v>
+        <v>0.8540673988001095</v>
       </c>
       <c r="C12" t="n">
         <v>1.68694009321268</v>
       </c>
       <c r="D12" t="n">
-        <v>2.531211308191991</v>
+        <v>2.531211308192065</v>
       </c>
     </row>
     <row r="13">
@@ -3294,13 +3294,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8435352311864124</v>
+        <v>0.86355059193526</v>
       </c>
       <c r="C13" t="n">
         <v>1.839559128101224</v>
       </c>
       <c r="D13" t="n">
-        <v>3.249023574315471</v>
+        <v>3.249023574315568</v>
       </c>
     </row>
     <row r="14">
@@ -3310,13 +3310,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.019670212319147</v>
+        <v>1.051828545272364</v>
       </c>
       <c r="C14" t="n">
         <v>1.735187294066539</v>
       </c>
       <c r="D14" t="n">
-        <v>2.265772470999616</v>
+        <v>2.265772470999703</v>
       </c>
     </row>
     <row r="15">
@@ -3326,13 +3326,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6960569500610249</v>
+        <v>0.7795453443901004</v>
       </c>
       <c r="C15" t="n">
         <v>1.282433600581871</v>
       </c>
       <c r="D15" t="n">
-        <v>1.760053430323267</v>
+        <v>1.760053430323323</v>
       </c>
     </row>
     <row r="16">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9979821936723048</v>
+        <v>0.989600182238576</v>
       </c>
       <c r="C16" t="n">
         <v>3.22562749990637</v>
       </c>
       <c r="D16" t="n">
-        <v>3.257228760663261</v>
+        <v>3.25722876066337</v>
       </c>
     </row>
     <row r="17">
@@ -3358,13 +3358,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7237089523204561</v>
+        <v>0.7322430170882681</v>
       </c>
       <c r="C17" t="n">
         <v>1.396172548093338</v>
       </c>
       <c r="D17" t="n">
-        <v>2.09946656491395</v>
+        <v>2.099466564914016</v>
       </c>
     </row>
     <row r="18">
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8160090509858613</v>
+        <v>0.7694127906340648</v>
       </c>
       <c r="C18" t="n">
         <v>1.008986690493125</v>
       </c>
       <c r="D18" t="n">
-        <v>1.99584004807988</v>
+        <v>1.995840048079945</v>
       </c>
     </row>
     <row r="19">
@@ -3390,13 +3390,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9879621751310012</v>
+        <v>0.9798330789883953</v>
       </c>
       <c r="C19" t="n">
         <v>4.591347737932235</v>
       </c>
       <c r="D19" t="n">
-        <v>4.589553939642933</v>
+        <v>4.589553939643</v>
       </c>
     </row>
     <row r="20">
@@ -3406,13 +3406,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.11998672033302</v>
+        <v>1.154992792582163</v>
       </c>
       <c r="C20" t="n">
         <v>1.774778478296485</v>
       </c>
       <c r="D20" t="n">
-        <v>2.077485614265097</v>
+        <v>2.077485614265207</v>
       </c>
     </row>
     <row r="21">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.340127706194751</v>
+        <v>1.462385809723643</v>
       </c>
       <c r="C21" t="n">
         <v>1.77980990786418</v>
       </c>
       <c r="D21" t="n">
-        <v>1.833355684533205</v>
+        <v>1.833355684533269</v>
       </c>
     </row>
     <row r="22">
@@ -3438,13 +3438,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.194075214585977</v>
+        <v>1.26120792839579</v>
       </c>
       <c r="C22" t="n">
         <v>1.442546646153489</v>
       </c>
       <c r="D22" t="n">
-        <v>1.494707699150045</v>
+        <v>1.494707699150071</v>
       </c>
     </row>
     <row r="23">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4696172365759519</v>
+        <v>0.4999766759465807</v>
       </c>
       <c r="C23" t="n">
         <v>1.371558390157716</v>
       </c>
       <c r="D23" t="n">
-        <v>2.846950165520028</v>
+        <v>2.84695016552012</v>
       </c>
     </row>
     <row r="24">
@@ -3470,13 +3470,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.295893724266068</v>
+        <v>1.446597177291143</v>
       </c>
       <c r="C24" t="n">
         <v>2.067507349313999</v>
       </c>
       <c r="D24" t="n">
-        <v>1.560557581946291</v>
+        <v>1.56055758194631</v>
       </c>
     </row>
     <row r="25">
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7623032007482398</v>
+        <v>0.7694369029133202</v>
       </c>
       <c r="C25" t="n">
         <v>1.304679883550034</v>
       </c>
       <c r="D25" t="n">
-        <v>2.106199928949652</v>
+        <v>2.106199928949715</v>
       </c>
     </row>
     <row r="26">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.050615992531123</v>
+        <v>0.722411279885375</v>
       </c>
       <c r="C26" t="n">
         <v>1.904390830810725</v>
       </c>
       <c r="D26" t="n">
-        <v>2.263637377771769</v>
+        <v>2.263637377771818</v>
       </c>
     </row>
     <row r="27">
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4857937885850271</v>
+        <v>0.5711313428416449</v>
       </c>
       <c r="C27" t="n">
         <v>3.234762512211901</v>
       </c>
       <c r="D27" t="n">
-        <v>2.712393370689553</v>
+        <v>2.712393370689097</v>
       </c>
     </row>
     <row r="28">
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.502858447714847</v>
+        <v>1.620016637354602</v>
       </c>
       <c r="C28" t="n">
         <v>2.05807217611738</v>
       </c>
       <c r="D28" t="n">
-        <v>2.260016852305526</v>
+        <v>2.260016852305593</v>
       </c>
     </row>
     <row r="29">
@@ -3550,13 +3550,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4101949653592654</v>
+        <v>0.4583075657524764</v>
       </c>
       <c r="C29" t="n">
         <v>1.914843291228285</v>
       </c>
       <c r="D29" t="n">
-        <v>4.4151033140478</v>
+        <v>4.415103314047939</v>
       </c>
     </row>
     <row r="30">
@@ -3566,13 +3566,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.145378972851294</v>
+        <v>1.165837445642899</v>
       </c>
       <c r="C30" t="n">
         <v>2.633191634751883</v>
       </c>
       <c r="D30" t="n">
-        <v>3.166456872589514</v>
+        <v>3.166456872589618</v>
       </c>
     </row>
     <row r="31">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2435990246528882</v>
+        <v>0.2427232077111491</v>
       </c>
       <c r="C31" t="n">
         <v>1.017235427192775</v>
       </c>
       <c r="D31" t="n">
-        <v>3.205191996061346</v>
+        <v>3.205191996061456</v>
       </c>
     </row>
     <row r="32">
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6852117473793722</v>
+        <v>0.6896592883828476</v>
       </c>
       <c r="C32" t="n">
-        <v>1.266729893424123</v>
+        <v>1.266729893424083</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9831997986322654</v>
+        <v>0.9831997986322905</v>
       </c>
     </row>
     <row r="33">
@@ -3614,13 +3614,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5809447970167725</v>
+        <v>0.5846689114925383</v>
       </c>
       <c r="C33" t="n">
-        <v>2.443233351786885</v>
+        <v>2.443233351786886</v>
       </c>
       <c r="D33" t="n">
-        <v>3.016782050010114</v>
+        <v>3.016782050010205</v>
       </c>
     </row>
     <row r="34">
@@ -3630,13 +3630,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6179409039948185</v>
+        <v>0.6195465491507403</v>
       </c>
       <c r="C34" t="n">
         <v>2.72239724921132</v>
       </c>
       <c r="D34" t="n">
-        <v>3.82813675569554</v>
+        <v>3.828136755695637</v>
       </c>
     </row>
     <row r="35">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.830005245243465</v>
+        <v>0.8364347588983116</v>
       </c>
       <c r="C35" t="n">
         <v>1.667387260047974</v>
       </c>
       <c r="D35" t="n">
-        <v>1.863070463181359</v>
+        <v>1.863070463181411</v>
       </c>
     </row>
     <row r="36">
@@ -3662,13 +3662,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6829362461283728</v>
+        <v>0.6825093313471343</v>
       </c>
       <c r="C36" t="n">
         <v>1.472873705784512</v>
       </c>
       <c r="D36" t="n">
-        <v>1.904709499960408</v>
+        <v>1.904709499960458</v>
       </c>
     </row>
     <row r="37">
@@ -3678,13 +3678,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.946711962152562</v>
+        <v>1.022235728346144</v>
       </c>
       <c r="C37" t="n">
-        <v>0.845427815115593</v>
+        <v>0.8454278151155742</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8987661322388156</v>
+        <v>0.8987661322388819</v>
       </c>
     </row>
     <row r="38">
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.649114920519033</v>
+        <v>1.884041185688879</v>
       </c>
       <c r="C38" t="n">
         <v>3.54296816266138</v>
       </c>
       <c r="D38" t="n">
-        <v>1.706521479402592</v>
+        <v>1.706521479402625</v>
       </c>
     </row>
     <row r="39">
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7764177882614083</v>
+        <v>0.7790715898674292</v>
       </c>
       <c r="C39" t="n">
         <v>1.896167744093119</v>
       </c>
       <c r="D39" t="n">
-        <v>2.575757196153074</v>
+        <v>2.575757196153167</v>
       </c>
     </row>
     <row r="40">
@@ -3726,13 +3726,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.019388970386922</v>
+        <v>1.063310524059201</v>
       </c>
       <c r="C40" t="n">
-        <v>1.563706001739751</v>
+        <v>1.563706001739765</v>
       </c>
       <c r="D40" t="n">
-        <v>2.184596397176215</v>
+        <v>2.184596397176297</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6449319784558686</v>
+        <v>0.6966248870616463</v>
       </c>
       <c r="C41" t="n">
         <v>1.803055380216541</v>
       </c>
       <c r="D41" t="n">
-        <v>2.072852006901643</v>
+        <v>2.072852006901706</v>
       </c>
     </row>
     <row r="42">
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4280020528989877</v>
+        <v>0.4051103698116593</v>
       </c>
       <c r="C42" t="n">
         <v>1.230968738632075</v>
       </c>
       <c r="D42" t="n">
-        <v>1.245885024040716</v>
+        <v>1.245885024040758</v>
       </c>
     </row>
     <row r="43">
@@ -3774,13 +3774,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4611680240364719</v>
+        <v>0.4873899914537607</v>
       </c>
       <c r="C43" t="n">
         <v>2.765655411415957</v>
       </c>
       <c r="D43" t="n">
-        <v>2.428358548156365</v>
+        <v>2.428358548156409</v>
       </c>
     </row>
     <row r="44">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.473578314567038</v>
+        <v>1.452974903373113</v>
       </c>
       <c r="C44" t="n">
-        <v>1.736544707543099</v>
+        <v>1.73654470754315</v>
       </c>
       <c r="D44" t="n">
-        <v>2.350415268623769</v>
+        <v>2.350415268623825</v>
       </c>
     </row>
     <row r="45">
@@ -3806,13 +3806,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.044319311301718</v>
+        <v>1.066969009666083</v>
       </c>
       <c r="C45" t="n">
         <v>1.8031454669919</v>
       </c>
       <c r="D45" t="n">
-        <v>2.030537255170603</v>
+        <v>2.03053725517065</v>
       </c>
     </row>
     <row r="46">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.334745410732651</v>
+        <v>1.534279770165002</v>
       </c>
       <c r="C46" t="n">
         <v>2.604229097744142</v>
       </c>
       <c r="D46" t="n">
-        <v>1.882431284080891</v>
+        <v>1.88243128408095</v>
       </c>
     </row>
     <row r="47">
@@ -3838,13 +3838,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.176022049982499</v>
+        <v>3.361384190734154</v>
       </c>
       <c r="C47" t="n">
         <v>1.14039990701783</v>
       </c>
       <c r="D47" t="n">
-        <v>1.423533337985444</v>
+        <v>1.423533337985487</v>
       </c>
     </row>
     <row r="48">
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9438818443206546</v>
+        <v>0.8983159702979592</v>
       </c>
       <c r="C48" t="n">
-        <v>1.731449678777342</v>
+        <v>1.73144967877734</v>
       </c>
       <c r="D48" t="n">
-        <v>1.84076967757003</v>
+        <v>1.840769677570086</v>
       </c>
     </row>
     <row r="49">
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.080549481985782</v>
+        <v>1.094700921548801</v>
       </c>
       <c r="C49" t="n">
         <v>2.83686988829559</v>
       </c>
       <c r="D49" t="n">
-        <v>2.439586482160264</v>
+        <v>2.439586482160321</v>
       </c>
     </row>
     <row r="50">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.755152816263556</v>
+        <v>1.611829176845466</v>
       </c>
       <c r="C50" t="n">
         <v>2.968355539943869</v>
       </c>
       <c r="D50" t="n">
-        <v>2.430047151314556</v>
+        <v>2.430047151314608</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2662082764517239</v>
+        <v>0.2662082764517245</v>
       </c>
     </row>
     <row r="3">
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09742381193825744</v>
+        <v>-0.09742381193823335</v>
       </c>
     </row>
     <row r="4">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5249971555965794</v>
+        <v>0.5249971555965884</v>
       </c>
     </row>
     <row r="5">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001075828409483278</v>
+        <v>0.0001075828409482931</v>
       </c>
     </row>
     <row r="6">
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06295037131896314</v>
+        <v>0.06295037131896179</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/figure4.xlsx
+++ b/Figures/figure4.xlsx
@@ -1805,7 +1805,7 @@
         <v>3.658683433231951</v>
       </c>
       <c r="C2" t="n">
-        <v>1.423533337985487</v>
+        <v>1.319214963900779</v>
       </c>
     </row>
     <row r="3">
@@ -1818,7 +1818,7 @@
         <v>6.149196657491804</v>
       </c>
       <c r="C3" t="n">
-        <v>1.56055758194631</v>
+        <v>1.352917872027837</v>
       </c>
     </row>
     <row r="4">
@@ -1831,7 +1831,7 @@
         <v>8.838014668688004</v>
       </c>
       <c r="C4" t="n">
-        <v>2.03053725517065</v>
+        <v>1.822846887878908</v>
       </c>
     </row>
     <row r="5">
@@ -1844,7 +1844,7 @@
         <v>11.04875865041318</v>
       </c>
       <c r="C5" t="n">
-        <v>1.494707699150071</v>
+        <v>1.365562930176478</v>
       </c>
     </row>
     <row r="6">
@@ -1857,7 +1857,7 @@
         <v>12.86958400644032</v>
       </c>
       <c r="C6" t="n">
-        <v>2.430047151314608</v>
+        <v>2.284032009807097</v>
       </c>
     </row>
     <row r="7">
@@ -1870,7 +1870,7 @@
         <v>13.48037164006155</v>
       </c>
       <c r="C7" t="n">
-        <v>1.88243128408095</v>
+        <v>1.859318468447161</v>
       </c>
     </row>
     <row r="8">
@@ -1883,7 +1883,7 @@
         <v>14.14991879898117</v>
       </c>
       <c r="C8" t="n">
-        <v>2.865476437018665</v>
+        <v>2.50486007854281</v>
       </c>
     </row>
     <row r="9">
@@ -1896,7 +1896,7 @@
         <v>14.51316828722442</v>
       </c>
       <c r="C9" t="n">
-        <v>1.840769677570086</v>
+        <v>1.727255000348879</v>
       </c>
     </row>
     <row r="10">
@@ -1909,7 +1909,7 @@
         <v>14.51984968915406</v>
       </c>
       <c r="C10" t="n">
-        <v>2.324637489190438</v>
+        <v>2.153623006296188</v>
       </c>
     </row>
     <row r="11">
@@ -1922,7 +1922,7 @@
         <v>20.02266000649776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9831997986322905</v>
+        <v>0.8562377486487824</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +1935,7 @@
         <v>20.18715191771729</v>
       </c>
       <c r="C12" t="n">
-        <v>2.439586482160321</v>
+        <v>2.203508468714841</v>
       </c>
     </row>
     <row r="13">
@@ -1948,7 +1948,7 @@
         <v>21.4470789852848</v>
       </c>
       <c r="C13" t="n">
-        <v>1.689128825771906</v>
+        <v>1.565967862858648</v>
       </c>
     </row>
     <row r="14">
@@ -1961,7 +1961,7 @@
         <v>26.07907670771616</v>
       </c>
       <c r="C14" t="n">
-        <v>1.706521479402625</v>
+        <v>1.642785309239926</v>
       </c>
     </row>
     <row r="15">
@@ -1974,7 +1974,7 @@
         <v>26.66603287823916</v>
       </c>
       <c r="C15" t="n">
-        <v>2.077485614265207</v>
+        <v>1.939856566834212</v>
       </c>
     </row>
     <row r="16">
@@ -1987,7 +1987,7 @@
         <v>27.29254363888601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8987661322388819</v>
+        <v>0.8411184920888181</v>
       </c>
     </row>
     <row r="17">
@@ -2000,7 +2000,7 @@
         <v>28.20855106545503</v>
       </c>
       <c r="C17" t="n">
-        <v>1.245885024040758</v>
+        <v>1.221281379481724</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>28.50476361736477</v>
       </c>
       <c r="C18" t="n">
-        <v>3.166456872589618</v>
+        <v>2.901500037896975</v>
       </c>
     </row>
     <row r="19">
@@ -2026,7 +2026,7 @@
         <v>29.08896566699443</v>
       </c>
       <c r="C19" t="n">
-        <v>4.589553939643</v>
+        <v>4.247749710805369</v>
       </c>
     </row>
     <row r="20">
@@ -2039,7 +2039,7 @@
         <v>29.52929932682129</v>
       </c>
       <c r="C20" t="n">
-        <v>1.833355684533269</v>
+        <v>1.807205341747676</v>
       </c>
     </row>
     <row r="21">
@@ -2052,7 +2052,7 @@
         <v>29.80181013841575</v>
       </c>
       <c r="C21" t="n">
-        <v>1.863070463181411</v>
+        <v>1.858418584659465</v>
       </c>
     </row>
     <row r="22">
@@ -2065,7 +2065,7 @@
         <v>30.91070748344712</v>
       </c>
       <c r="C22" t="n">
-        <v>2.072852006901706</v>
+        <v>2.033450405181828</v>
       </c>
     </row>
     <row r="23">
@@ -2078,7 +2078,7 @@
         <v>33.08606534687009</v>
       </c>
       <c r="C23" t="n">
-        <v>1.904709499960458</v>
+        <v>1.730192540405501</v>
       </c>
     </row>
     <row r="24">
@@ -2091,7 +2091,7 @@
         <v>33.8211264676923</v>
       </c>
       <c r="C24" t="n">
-        <v>2.260016852305593</v>
+        <v>2.15697541653352</v>
       </c>
     </row>
     <row r="25">
@@ -2104,7 +2104,7 @@
         <v>33.86672561612055</v>
       </c>
       <c r="C25" t="n">
-        <v>2.265772470999703</v>
+        <v>2.118638154129988</v>
       </c>
     </row>
     <row r="26">
@@ -2117,7 +2117,7 @@
         <v>36.66096345042055</v>
       </c>
       <c r="C26" t="n">
-        <v>2.184596397176297</v>
+        <v>1.974188063803748</v>
       </c>
     </row>
     <row r="27">
@@ -2130,7 +2130,7 @@
         <v>37.91532721705383</v>
       </c>
       <c r="C27" t="n">
-        <v>2.27997583474734</v>
+        <v>2.050588083986683</v>
       </c>
     </row>
     <row r="28">
@@ -2143,7 +2143,7 @@
         <v>38.50733191216513</v>
       </c>
       <c r="C28" t="n">
-        <v>2.137565778656006</v>
+        <v>2.028326688383942</v>
       </c>
     </row>
     <row r="29">
@@ -2156,7 +2156,7 @@
         <v>39.62684315955195</v>
       </c>
       <c r="C29" t="n">
-        <v>1.760053430323323</v>
+        <v>1.585553385331696</v>
       </c>
     </row>
     <row r="30">
@@ -2169,7 +2169,7 @@
         <v>40.82653392688349</v>
       </c>
       <c r="C30" t="n">
-        <v>2.263637377771818</v>
+        <v>2.804009740469744</v>
       </c>
     </row>
     <row r="31">
@@ -2182,7 +2182,7 @@
         <v>41.00099633912095</v>
       </c>
       <c r="C31" t="n">
-        <v>2.712393370689097</v>
+        <v>2.453655800576705</v>
       </c>
     </row>
     <row r="32">
@@ -2195,7 +2195,7 @@
         <v>41.74143521820427</v>
       </c>
       <c r="C32" t="n">
-        <v>3.205191996061456</v>
+        <v>3.147659891102718</v>
       </c>
     </row>
     <row r="33">
@@ -2208,7 +2208,7 @@
         <v>41.78482081334645</v>
       </c>
       <c r="C33" t="n">
-        <v>2.106199928949715</v>
+        <v>1.895659524163687</v>
       </c>
     </row>
     <row r="34">
@@ -2221,7 +2221,7 @@
         <v>44.65136115317269</v>
       </c>
       <c r="C34" t="n">
-        <v>2.099466564914016</v>
+        <v>1.882229673246511</v>
       </c>
     </row>
     <row r="35">
@@ -2234,7 +2234,7 @@
         <v>45.98796083386492</v>
       </c>
       <c r="C35" t="n">
-        <v>1.995840048079945</v>
+        <v>1.866611804813323</v>
       </c>
     </row>
     <row r="36">
@@ -2247,7 +2247,7 @@
         <v>47.22294185739049</v>
       </c>
       <c r="C36" t="n">
-        <v>2.428358548156409</v>
+        <v>2.304019038126573</v>
       </c>
     </row>
     <row r="37">
@@ -2260,7 +2260,7 @@
         <v>47.47063295942849</v>
       </c>
       <c r="C37" t="n">
-        <v>3.25722876066337</v>
+        <v>3.068859199568302</v>
       </c>
     </row>
     <row r="38">
@@ -2273,7 +2273,7 @@
         <v>48.65775224672655</v>
       </c>
       <c r="C38" t="n">
-        <v>3.818546951504054</v>
+        <v>5.038693393248002</v>
       </c>
     </row>
     <row r="39">
@@ -2286,7 +2286,7 @@
         <v>50.15263589053244</v>
       </c>
       <c r="C39" t="n">
-        <v>2.749826232358276</v>
+        <v>2.563389789559973</v>
       </c>
     </row>
     <row r="40">
@@ -2299,7 +2299,7 @@
         <v>50.77144050608332</v>
       </c>
       <c r="C40" t="n">
-        <v>3.568071924354279</v>
+        <v>3.376043313878982</v>
       </c>
     </row>
     <row r="41">
@@ -2312,7 +2312,7 @@
         <v>52.69284744205405</v>
       </c>
       <c r="C41" t="n">
-        <v>2.575757196153167</v>
+        <v>2.418229892875246</v>
       </c>
     </row>
     <row r="42">
@@ -2325,7 +2325,7 @@
         <v>53.01173802062971</v>
       </c>
       <c r="C42" t="n">
-        <v>2.531211308192065</v>
+        <v>2.338695644741247</v>
       </c>
     </row>
     <row r="43">
@@ -2338,7 +2338,7 @@
         <v>54.652508821656</v>
       </c>
       <c r="C43" t="n">
-        <v>2.464906438428404</v>
+        <v>2.234326960909044</v>
       </c>
     </row>
     <row r="44">
@@ -2351,7 +2351,7 @@
         <v>55.04561490480631</v>
       </c>
       <c r="C44" t="n">
-        <v>3.249023574315568</v>
+        <v>2.974159260662775</v>
       </c>
     </row>
     <row r="45">
@@ -2364,7 +2364,7 @@
         <v>55.34889320301367</v>
       </c>
       <c r="C45" t="n">
-        <v>3.016782050010205</v>
+        <v>2.783010053574825</v>
       </c>
     </row>
     <row r="46">
@@ -2377,7 +2377,7 @@
         <v>59.98409112201868</v>
       </c>
       <c r="C46" t="n">
-        <v>2.350415268623825</v>
+        <v>2.13068690950413</v>
       </c>
     </row>
     <row r="47">
@@ -2390,7 +2390,7 @@
         <v>62.94019617704569</v>
       </c>
       <c r="C47" t="n">
-        <v>3.828136755695637</v>
+        <v>3.672033848623827</v>
       </c>
     </row>
     <row r="48">
@@ -2403,7 +2403,7 @@
         <v>67.13905770213303</v>
       </c>
       <c r="C48" t="n">
-        <v>2.497472854077905</v>
+        <v>2.308079875176504</v>
       </c>
     </row>
     <row r="49">
@@ -2416,7 +2416,7 @@
         <v>78.21148525458689</v>
       </c>
       <c r="C49" t="n">
-        <v>2.84695016552012</v>
+        <v>2.528999603541364</v>
       </c>
     </row>
     <row r="50">
@@ -2429,7 +2429,7 @@
         <v>112.7006754642628</v>
       </c>
       <c r="C50" t="n">
-        <v>4.415103314047939</v>
+        <v>4.264918499627088</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02290612544723676</v>
+        <v>0.02294010474866214</v>
       </c>
     </row>
     <row r="3">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.539726328038196</v>
+        <v>1.416327319838081</v>
       </c>
     </row>
     <row r="4">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5883343769652264</v>
+        <v>0.5588345907055456</v>
       </c>
     </row>
     <row r="5">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.759274374462963e-06</v>
+        <v>3.00241400273786e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004592210097939959</v>
+        <v>0.004965510803936371</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.184315190617037</v>
+        <v>2.039298200777883</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1208514852435831</v>
+        <v>0.09133431721496336</v>
       </c>
     </row>
     <row r="3">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2302353559307607</v>
+        <v>0.2287247897012488</v>
       </c>
     </row>
     <row r="4">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4907230071677273</v>
+        <v>0.5040986771504566</v>
       </c>
     </row>
     <row r="5">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2570894572013201</v>
+        <v>-0.2641016538850014</v>
       </c>
     </row>
     <row r="6">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06226174273707372</v>
+        <v>0.05454581368534421</v>
       </c>
     </row>
     <row r="7">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5585676055506449</v>
+        <v>0.9045410716600322</v>
       </c>
     </row>
     <row r="8">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1339769967255201</v>
+        <v>0.1238102265676936</v>
       </c>
     </row>
     <row r="9">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2714322664667235</v>
+        <v>0.2056271466662294</v>
       </c>
     </row>
     <row r="10">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04286247859725103</v>
+        <v>0.00552089280691645</v>
       </c>
     </row>
     <row r="11">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02163467052238854</v>
+        <v>-0.005394567739185516</v>
       </c>
     </row>
     <row r="12">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1473956005854632</v>
+        <v>0.1369876277364692</v>
       </c>
     </row>
     <row r="13">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3970521470108691</v>
+        <v>0.3773556681589778</v>
       </c>
     </row>
     <row r="14">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03661338207283828</v>
+        <v>0.0381677727006323</v>
       </c>
     </row>
     <row r="15">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2159581987903917</v>
+        <v>-0.2516722440364716</v>
       </c>
     </row>
     <row r="16">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.399574394927269</v>
+        <v>0.4087001668668862</v>
       </c>
     </row>
     <row r="17">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03961906976384722</v>
+        <v>-0.08014865892999604</v>
       </c>
     </row>
     <row r="18">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09023732707220457</v>
+        <v>-0.08848081107889362</v>
       </c>
     </row>
     <row r="19">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7424804729265146</v>
+        <v>0.7337836334604819</v>
       </c>
     </row>
     <row r="20">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05014404233582979</v>
+        <v>-0.04999169372100996</v>
       </c>
     </row>
     <row r="21">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1751543704583044</v>
+        <v>-0.1208240874597795</v>
       </c>
     </row>
     <row r="22">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3793716967547426</v>
+        <v>-0.4010389827595632</v>
       </c>
     </row>
     <row r="23">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2649459384168995</v>
+        <v>0.2152180814814271</v>
       </c>
     </row>
     <row r="24">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.336259183792759</v>
+        <v>-0.4103420827397302</v>
       </c>
     </row>
     <row r="25">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.03641702328741944</v>
+        <v>-0.07303891759728816</v>
       </c>
     </row>
     <row r="26">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03567061316593318</v>
+        <v>0.3184447135015584</v>
       </c>
     </row>
     <row r="27">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2165290422309682</v>
+        <v>0.1849733464461891</v>
       </c>
     </row>
     <row r="28">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03406990451087435</v>
+        <v>0.05610124083692785</v>
       </c>
     </row>
     <row r="29">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.7037288689545868</v>
+        <v>0.737817342205254</v>
       </c>
     </row>
     <row r="30">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3713108914646289</v>
+        <v>0.3526221282682845</v>
       </c>
     </row>
     <row r="31">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3834696282278669</v>
+        <v>0.4340535556019213</v>
       </c>
     </row>
     <row r="32">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.7982452910567298</v>
+        <v>-0.8678129270968798</v>
       </c>
     </row>
     <row r="33">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.322888351416528</v>
+        <v>0.3109273655912662</v>
       </c>
     </row>
     <row r="34">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5610758325380305</v>
+        <v>0.5881399613091615</v>
       </c>
     </row>
     <row r="35">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1590764521867517</v>
+        <v>-0.09287982666249232</v>
       </c>
     </row>
     <row r="36">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1369728620266273</v>
+        <v>-0.1643730320924714</v>
       </c>
     </row>
     <row r="37">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.8880347859859539</v>
+        <v>-0.8856284640960508</v>
       </c>
     </row>
     <row r="38">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.2468452894158363</v>
+        <v>-0.2162125688939541</v>
       </c>
     </row>
     <row r="39">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1648411821300914</v>
+        <v>0.17043009386258</v>
       </c>
     </row>
     <row r="40">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0001287307165628982</v>
+        <v>-0.03244852255075728</v>
       </c>
     </row>
     <row r="41">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.05237692539818239</v>
+        <v>-0.002871672268772771</v>
       </c>
     </row>
     <row r="42">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.5614562254610959</v>
+        <v>-0.5127051108363867</v>
       </c>
     </row>
     <row r="43">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1059131689994515</v>
+        <v>0.1220492764338675</v>
       </c>
     </row>
     <row r="44">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.07328965707947234</v>
+        <v>0.04383869101526796</v>
       </c>
     </row>
     <row r="45">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.07300194976035285</v>
+        <v>-0.1122062263676609</v>
       </c>
     </row>
     <row r="46">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1487381879724637</v>
+        <v>-0.09239572367596294</v>
       </c>
     </row>
     <row r="47">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.428160318326305</v>
+        <v>-0.4355688940793756</v>
       </c>
     </row>
     <row r="48">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1711185783341108</v>
+        <v>-0.1660722860819145</v>
       </c>
     </row>
     <row r="49">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1105261849003173</v>
+        <v>0.07744511915260491</v>
       </c>
     </row>
     <row r="50">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1066082954794727</v>
+        <v>0.1133365770558555</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3124,7 @@
         <v>1.505342520648257</v>
       </c>
       <c r="D2" t="n">
-        <v>2.464906438428404</v>
+        <v>2.234326960909044</v>
       </c>
     </row>
     <row r="3">
@@ -3140,7 +3140,7 @@
         <v>2.197161291766937</v>
       </c>
       <c r="D3" t="n">
-        <v>2.749826232358276</v>
+        <v>2.563389789559973</v>
       </c>
     </row>
     <row r="4">
@@ -3156,7 +3156,7 @@
         <v>2.421033223672547</v>
       </c>
       <c r="D4" t="n">
-        <v>3.568071924354279</v>
+        <v>3.376043313878982</v>
       </c>
     </row>
     <row r="5">
@@ -3172,7 +3172,7 @@
         <v>2.037247579084401</v>
       </c>
       <c r="D5" t="n">
-        <v>1.689128825771906</v>
+        <v>1.565967862858648</v>
       </c>
     </row>
     <row r="6">
@@ -3188,7 +3188,7 @@
         <v>2.435457362311612</v>
       </c>
       <c r="D6" t="n">
-        <v>2.324637489190438</v>
+        <v>2.153623006296188</v>
       </c>
     </row>
     <row r="7">
@@ -3204,7 +3204,7 @@
         <v>3.245168062634892</v>
       </c>
       <c r="D7" t="n">
-        <v>3.818546951504054</v>
+        <v>5.038693393248002</v>
       </c>
     </row>
     <row r="8">
@@ -3220,7 +3220,7 @@
         <v>0.8235580216791979</v>
       </c>
       <c r="D8" t="n">
-        <v>2.497472854077905</v>
+        <v>2.308079875176504</v>
       </c>
     </row>
     <row r="9">
@@ -3236,7 +3236,7 @@
         <v>3.273629095287491</v>
       </c>
       <c r="D9" t="n">
-        <v>2.865476437018665</v>
+        <v>2.50486007854281</v>
       </c>
     </row>
     <row r="10">
@@ -3252,7 +3252,7 @@
         <v>3.317798282496856</v>
       </c>
       <c r="D10" t="n">
-        <v>2.27997583474734</v>
+        <v>2.050588083986683</v>
       </c>
     </row>
     <row r="11">
@@ -3268,7 +3268,7 @@
         <v>1.938954199417558</v>
       </c>
       <c r="D11" t="n">
-        <v>2.137565778656006</v>
+        <v>2.028326688383942</v>
       </c>
     </row>
     <row r="12">
@@ -3284,7 +3284,7 @@
         <v>1.68694009321268</v>
       </c>
       <c r="D12" t="n">
-        <v>2.531211308192065</v>
+        <v>2.338695644741247</v>
       </c>
     </row>
     <row r="13">
@@ -3300,7 +3300,7 @@
         <v>1.839559128101224</v>
       </c>
       <c r="D13" t="n">
-        <v>3.249023574315568</v>
+        <v>2.974159260662775</v>
       </c>
     </row>
     <row r="14">
@@ -3316,7 +3316,7 @@
         <v>1.735187294066539</v>
       </c>
       <c r="D14" t="n">
-        <v>2.265772470999703</v>
+        <v>2.118638154129988</v>
       </c>
     </row>
     <row r="15">
@@ -3332,7 +3332,7 @@
         <v>1.282433600581871</v>
       </c>
       <c r="D15" t="n">
-        <v>1.760053430323323</v>
+        <v>1.585553385331696</v>
       </c>
     </row>
     <row r="16">
@@ -3348,7 +3348,7 @@
         <v>3.22562749990637</v>
       </c>
       <c r="D16" t="n">
-        <v>3.25722876066337</v>
+        <v>3.068859199568302</v>
       </c>
     </row>
     <row r="17">
@@ -3364,7 +3364,7 @@
         <v>1.396172548093338</v>
       </c>
       <c r="D17" t="n">
-        <v>2.099466564914016</v>
+        <v>1.882229673246511</v>
       </c>
     </row>
     <row r="18">
@@ -3380,7 +3380,7 @@
         <v>1.008986690493125</v>
       </c>
       <c r="D18" t="n">
-        <v>1.995840048079945</v>
+        <v>1.866611804813323</v>
       </c>
     </row>
     <row r="19">
@@ -3396,7 +3396,7 @@
         <v>4.591347737932235</v>
       </c>
       <c r="D19" t="n">
-        <v>4.589553939643</v>
+        <v>4.247749710805369</v>
       </c>
     </row>
     <row r="20">
@@ -3412,7 +3412,7 @@
         <v>1.774778478296485</v>
       </c>
       <c r="D20" t="n">
-        <v>2.077485614265207</v>
+        <v>1.939856566834212</v>
       </c>
     </row>
     <row r="21">
@@ -3428,7 +3428,7 @@
         <v>1.77980990786418</v>
       </c>
       <c r="D21" t="n">
-        <v>1.833355684533269</v>
+        <v>1.807205341747676</v>
       </c>
     </row>
     <row r="22">
@@ -3444,7 +3444,7 @@
         <v>1.442546646153489</v>
       </c>
       <c r="D22" t="n">
-        <v>1.494707699150071</v>
+        <v>1.365562930176478</v>
       </c>
     </row>
     <row r="23">
@@ -3460,7 +3460,7 @@
         <v>1.371558390157716</v>
       </c>
       <c r="D23" t="n">
-        <v>2.84695016552012</v>
+        <v>2.528999603541364</v>
       </c>
     </row>
     <row r="24">
@@ -3476,7 +3476,7 @@
         <v>2.067507349313999</v>
       </c>
       <c r="D24" t="n">
-        <v>1.56055758194631</v>
+        <v>1.352917872027837</v>
       </c>
     </row>
     <row r="25">
@@ -3492,7 +3492,7 @@
         <v>1.304679883550034</v>
       </c>
       <c r="D25" t="n">
-        <v>2.106199928949715</v>
+        <v>1.895659524163687</v>
       </c>
     </row>
     <row r="26">
@@ -3508,7 +3508,7 @@
         <v>1.904390830810725</v>
       </c>
       <c r="D26" t="n">
-        <v>2.263637377771818</v>
+        <v>2.804009740469744</v>
       </c>
     </row>
     <row r="27">
@@ -3524,7 +3524,7 @@
         <v>3.234762512211901</v>
       </c>
       <c r="D27" t="n">
-        <v>2.712393370689097</v>
+        <v>2.453655800576705</v>
       </c>
     </row>
     <row r="28">
@@ -3540,7 +3540,7 @@
         <v>2.05807217611738</v>
       </c>
       <c r="D28" t="n">
-        <v>2.260016852305593</v>
+        <v>2.15697541653352</v>
       </c>
     </row>
     <row r="29">
@@ -3556,7 +3556,7 @@
         <v>1.914843291228285</v>
       </c>
       <c r="D29" t="n">
-        <v>4.415103314047939</v>
+        <v>4.264918499627088</v>
       </c>
     </row>
     <row r="30">
@@ -3572,7 +3572,7 @@
         <v>2.633191634751883</v>
       </c>
       <c r="D30" t="n">
-        <v>3.166456872589618</v>
+        <v>2.901500037896975</v>
       </c>
     </row>
     <row r="31">
@@ -3588,7 +3588,7 @@
         <v>1.017235427192775</v>
       </c>
       <c r="D31" t="n">
-        <v>3.205191996061456</v>
+        <v>3.147659891102718</v>
       </c>
     </row>
     <row r="32">
@@ -3604,7 +3604,7 @@
         <v>1.266729893424083</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9831997986322905</v>
+        <v>0.8562377486487824</v>
       </c>
     </row>
     <row r="33">
@@ -3620,7 +3620,7 @@
         <v>2.443233351786886</v>
       </c>
       <c r="D33" t="n">
-        <v>3.016782050010205</v>
+        <v>2.783010053574825</v>
       </c>
     </row>
     <row r="34">
@@ -3636,7 +3636,7 @@
         <v>2.72239724921132</v>
       </c>
       <c r="D34" t="n">
-        <v>3.828136755695637</v>
+        <v>3.672033848623827</v>
       </c>
     </row>
     <row r="35">
@@ -3652,7 +3652,7 @@
         <v>1.667387260047974</v>
       </c>
       <c r="D35" t="n">
-        <v>1.863070463181411</v>
+        <v>1.858418584659465</v>
       </c>
     </row>
     <row r="36">
@@ -3668,7 +3668,7 @@
         <v>1.472873705784512</v>
       </c>
       <c r="D36" t="n">
-        <v>1.904709499960458</v>
+        <v>1.730192540405501</v>
       </c>
     </row>
     <row r="37">
@@ -3684,7 +3684,7 @@
         <v>0.8454278151155742</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8987661322388819</v>
+        <v>0.8411184920888181</v>
       </c>
     </row>
     <row r="38">
@@ -3700,7 +3700,7 @@
         <v>3.54296816266138</v>
       </c>
       <c r="D38" t="n">
-        <v>1.706521479402625</v>
+        <v>1.642785309239926</v>
       </c>
     </row>
     <row r="39">
@@ -3716,7 +3716,7 @@
         <v>1.896167744093119</v>
       </c>
       <c r="D39" t="n">
-        <v>2.575757196153167</v>
+        <v>2.418229892875246</v>
       </c>
     </row>
     <row r="40">
@@ -3732,7 +3732,7 @@
         <v>1.563706001739765</v>
       </c>
       <c r="D40" t="n">
-        <v>2.184596397176297</v>
+        <v>1.974188063803748</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>1.803055380216541</v>
       </c>
       <c r="D41" t="n">
-        <v>2.072852006901706</v>
+        <v>2.033450405181828</v>
       </c>
     </row>
     <row r="42">
@@ -3764,7 +3764,7 @@
         <v>1.230968738632075</v>
       </c>
       <c r="D42" t="n">
-        <v>1.245885024040758</v>
+        <v>1.221281379481724</v>
       </c>
     </row>
     <row r="43">
@@ -3780,7 +3780,7 @@
         <v>2.765655411415957</v>
       </c>
       <c r="D43" t="n">
-        <v>2.428358548156409</v>
+        <v>2.304019038126573</v>
       </c>
     </row>
     <row r="44">
@@ -3796,7 +3796,7 @@
         <v>1.73654470754315</v>
       </c>
       <c r="D44" t="n">
-        <v>2.350415268623825</v>
+        <v>2.13068690950413</v>
       </c>
     </row>
     <row r="45">
@@ -3812,7 +3812,7 @@
         <v>1.8031454669919</v>
       </c>
       <c r="D45" t="n">
-        <v>2.03053725517065</v>
+        <v>1.822846887878908</v>
       </c>
     </row>
     <row r="46">
@@ -3828,7 +3828,7 @@
         <v>2.604229097744142</v>
       </c>
       <c r="D46" t="n">
-        <v>1.88243128408095</v>
+        <v>1.859318468447161</v>
       </c>
     </row>
     <row r="47">
@@ -3844,7 +3844,7 @@
         <v>1.14039990701783</v>
       </c>
       <c r="D47" t="n">
-        <v>1.423533337985487</v>
+        <v>1.319214963900779</v>
       </c>
     </row>
     <row r="48">
@@ -3860,7 +3860,7 @@
         <v>1.73144967877734</v>
       </c>
       <c r="D48" t="n">
-        <v>1.840769677570086</v>
+        <v>1.727255000348879</v>
       </c>
     </row>
     <row r="49">
@@ -3876,7 +3876,7 @@
         <v>2.83686988829559</v>
       </c>
       <c r="D49" t="n">
-        <v>2.439586482160321</v>
+        <v>2.203508468714841</v>
       </c>
     </row>
     <row r="50">
@@ -3892,7 +3892,7 @@
         <v>2.968355539943869</v>
       </c>
       <c r="D50" t="n">
-        <v>2.430047151314608</v>
+        <v>2.284032009807097</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2662082764517245</v>
+        <v>0.2853815620769785</v>
       </c>
     </row>
     <row r="3">
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09742381193823335</v>
+        <v>-0.2241448428323133</v>
       </c>
     </row>
     <row r="4">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5249971555965884</v>
+        <v>0.5296384308481413</v>
       </c>
     </row>
     <row r="5">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001075828409482931</v>
+        <v>9.102840441571928e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06295037131896179</v>
+        <v>0.06666652223473167</v>
       </c>
     </row>
   </sheetData>
